--- a/Párhuzamos Algoritmusok/Gyakorlati Feladatok/1 Gyakorlat/7 Feladat/diagram.xlsx
+++ b/Párhuzamos Algoritmusok/Gyakorlati Feladatok/1 Gyakorlat/7 Feladat/diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oravj\Desktop\ME_Git\ME_BRZGJZ\Párhuzamos Algoritmusok\Gyakorlati Feladatok\1 Gyakorlat\7 Feladat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C6A3C11-12F3-415D-A237-01108D49BF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5435AC83-9322-4E3A-A9E6-F8DF873EC379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4D21D3E4-C47C-481B-9357-92D41318BB5E}"/>
+    <workbookView xWindow="-26370" yWindow="2880" windowWidth="21600" windowHeight="11505" xr2:uid="{4D21D3E4-C47C-481B-9357-92D41318BB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="hu-HU"/>
-                  <a:t>Time</a:t>
+                  <a:t>Time (sec)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1655,7 +1655,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Párhuzamos Algoritmusok/Gyakorlati Feladatok/1 Gyakorlat/7 Feladat/diagram.xlsx
+++ b/Párhuzamos Algoritmusok/Gyakorlati Feladatok/1 Gyakorlat/7 Feladat/diagram.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oravj\Desktop\ME_Git\ME_BRZGJZ\Párhuzamos Algoritmusok\Gyakorlati Feladatok\1 Gyakorlat\7 Feladat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oravj\Desktop\ME_Git\Miskolci_Egyetem\Párhuzamos Algoritmusok\Gyakorlati Feladatok\1 Gyakorlat\7 Feladat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5435AC83-9322-4E3A-A9E6-F8DF873EC379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3040F7A0-342B-478C-8A6F-F80533784D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26370" yWindow="2880" windowWidth="21600" windowHeight="11505" xr2:uid="{4D21D3E4-C47C-481B-9357-92D41318BB5E}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" xr2:uid="{4D21D3E4-C47C-481B-9357-92D41318BB5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -267,64 +267,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0,012</c:v>
+                  <c:v>0,004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0,021</c:v>
+                  <c:v>0,024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0,024</c:v>
+                  <c:v>0,048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,031</c:v>
+                  <c:v>0,084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0,085</c:v>
+                  <c:v>0,136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0,047</c:v>
+                  <c:v>0,208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,053</c:v>
+                  <c:v>0,264</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0,065</c:v>
+                  <c:v>0,336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0,069</c:v>
+                  <c:v>0,456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0,076</c:v>
+                  <c:v>0,512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0,082</c:v>
+                  <c:v>0,76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0,096</c:v>
+                  <c:v>0,744</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0,101</c:v>
+                  <c:v>0,897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0,113</c:v>
+                  <c:v>1,028</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0,122</c:v>
+                  <c:v>1,168</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0,179</c:v>
+                  <c:v>1,36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0,139</c:v>
+                  <c:v>1,627</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0,205</c:v>
+                  <c:v>1,653</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0,196</c:v>
+                  <c:v>1,797</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0,196</c:v>
+                  <c:v>1,924</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -423,64 +423,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>0.26400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>0.33600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>0.45600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5999999999999998E-2</c:v>
+                  <c:v>0.51200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2000000000000003E-2</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.6000000000000002E-2</c:v>
+                  <c:v>0.74399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10100000000000001</c:v>
+                  <c:v>0.89700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.113</c:v>
+                  <c:v>1.028</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.122</c:v>
+                  <c:v>1.1679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13900000000000001</c:v>
+                  <c:v>1.627</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>1.653</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.19600000000000001</c:v>
+                  <c:v>1.7969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.19600000000000001</c:v>
+                  <c:v>1.9239999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,7 +1655,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,64 +1792,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>1.2E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C3">
-        <v>2.1000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D3">
-        <v>2.4E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>3.1E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F3">
-        <v>8.5000000000000006E-2</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="G3">
-        <v>4.7E-2</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="H3">
-        <v>5.2999999999999999E-2</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="I3">
-        <v>6.5000000000000002E-2</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="J3">
-        <v>6.9000000000000006E-2</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="K3">
-        <v>7.5999999999999998E-2</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="L3">
-        <v>8.2000000000000003E-2</v>
+        <v>0.76</v>
       </c>
       <c r="M3">
-        <v>9.6000000000000002E-2</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="N3">
-        <v>0.10100000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="O3">
-        <v>0.113</v>
+        <v>1.028</v>
       </c>
       <c r="P3">
-        <v>0.122</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="Q3">
-        <v>0.17899999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="R3">
-        <v>0.13900000000000001</v>
+        <v>1.627</v>
       </c>
       <c r="S3">
-        <v>0.20499999999999999</v>
+        <v>1.653</v>
       </c>
       <c r="T3">
-        <v>0.19600000000000001</v>
+        <v>1.7969999999999999</v>
       </c>
       <c r="U3">
-        <v>0.19600000000000001</v>
+        <v>1.9239999999999999</v>
       </c>
     </row>
   </sheetData>
